--- a/medicine/Mort/Terrorisme_en_1975/Terrorisme_en_1975.xlsx
+++ b/medicine/Mort/Terrorisme_en_1975/Terrorisme_en_1975.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,31 +520,270 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-24 janvier, États-Unis : une explosion à la Fraunces Tavern de New York fait quatre morts[1].
-Février
-Mars
-9 ou 10 mars, France : un attentat à la gare de l'Est à Paris fait un mort et six ou sept blessés[2],[3],[4],[5],[6].
-Avril
-24 avril, Suède : une prise d'otages à l'ambassade d'Allemagne de l'Ouest à Stockholm par des membres de la Fraction armée rouge fait deux morts[réf. souhaitée].
-Mai
-20 mai, France : des tirs dans la zone internationale de l'aérogare d'Orly contre le comptoir de la compagnie El Al causent la mort d'une personne[réf. souhaitée].
-Juin
-27 juin, France : un attentat rue Toullier à Paris coûte la vie à deux policiers, tués par le terroriste Carlos. Un troisième est grièvement blessé[7].
-Juillet
-Août
-13 août, Irlande du Nord : l'explosion d'une bombe de l'IRA dans le pub Bayardo à Belfast fait cinq morts et plus de cinquante blessés[réf. souhaitée].
-15 août, France : attentat à la bombe de l’ARB contre la centrale de Brennilis[8].
-Septembre
-Octobre
-22 octobre, Autriche : l'ambassade de Turquie à Vienne (de) est prise d'assaut (tr) par les Commandos des justiciers du génocide arménien (CJGA) et l'ambassadeur Daniş Tunalıgil (en) est tué par balles.
-24 octobre, France : l'ambassadeur de Turquie à Paris, İsmail Erez, et son chauffeur, Talip Yener, sont tués par les CJGA à la sortie du pont de Bir-Hakeim.
-Novembre
-Décembre
-2 – 14 décembre, Pays-Bas : une prise d'otages dans un train (en) — la première du genre — dure treize jours. Le bilan de la prise d'otages est de trois morts.
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24 janvier, États-Unis : une explosion à la Fraunces Tavern de New York fait quatre morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9 ou 10 mars, France : un attentat à la gare de l'Est à Paris fait un mort et six ou sept blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24 avril, Suède : une prise d'otages à l'ambassade d'Allemagne de l'Ouest à Stockholm par des membres de la Fraction armée rouge fait deux morts[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20 mai, France : des tirs dans la zone internationale de l'aérogare d'Orly contre le comptoir de la compagnie El Al causent la mort d'une personne[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>27 juin, France : un attentat rue Toullier à Paris coûte la vie à deux policiers, tués par le terroriste Carlos. Un troisième est grièvement blessé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>13 août, Irlande du Nord : l'explosion d'une bombe de l'IRA dans le pub Bayardo à Belfast fait cinq morts et plus de cinquante blessés[réf. souhaitée].
+15 août, France : attentat à la bombe de l’ARB contre la centrale de Brennilis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>22 octobre, Autriche : l'ambassade de Turquie à Vienne (de) est prise d'assaut (tr) par les Commandos des justiciers du génocide arménien (CJGA) et l'ambassadeur Daniş Tunalıgil (en) est tué par balles.
+24 octobre, France : l'ambassadeur de Turquie à Paris, İsmail Erez, et son chauffeur, Talip Yener, sont tués par les CJGA à la sortie du pont de Bir-Hakeim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1975</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 – 14 décembre, Pays-Bas : une prise d'otages dans un train (en) — la première du genre — dure treize jours. Le bilan de la prise d'otages est de trois morts.
 4 – 19 décembre, Pays-Bas : une double prise d'otages par des réfugiés Moluquois au consulat général d'Indonésie (en) fait un mort.
 21 – 22 décembre, Autriche : prise d'otages du siège de l'OPEP à Vienne, trois morts.
-29 décembre, États-Unis : l'explosion d'une bombe (en) dans une consigne de l'aéroport La Guardia de New York fait onze morts et soixante-quinze blessés[1].</t>
+29 décembre, États-Unis : l'explosion d'une bombe (en) dans une consigne de l'aéroport La Guardia de New York fait onze morts et soixante-quinze blessés.</t>
         </is>
       </c>
     </row>
